--- a/target/classes/com/BhimanaGroup/testData/BhimanGroup.xlsx
+++ b/target/classes/com/BhimanaGroup/testData/BhimanGroup.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\urbanLadder\BhimanGroup\src\main\java\com\BhimanaGroup\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -27,51 +32,23 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Ashwini</t>
+    <t>admin12</t>
   </si>
   <si>
-    <t>ashwin1336</t>
-  </si>
-  <si>
-    <t>12345ashu</t>
-  </si>
-  <si>
-    <t>9876_543211admin</t>
-  </si>
-  <si>
-    <t>987654321@</t>
-  </si>
-  <si>
-    <t>adm</t>
-  </si>
-  <si>
-    <t>ashwini</t>
-  </si>
-  <si>
-    <t>_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    admin</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,26 +68,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +168,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,21 +379,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,142 +401,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>9876543211</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>987654321</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>987654321</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9876543211</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9876543211</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>99865845367</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>9876543211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>9876543211</v>
-      </c>
-      <c r="B11">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>9876543211</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>9876543211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>9876543211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>987654211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
